--- a/NoteBook/task and schedule plans and actual/SCHEDULE_Oscar.xlsx
+++ b/NoteBook/task and schedule plans and actual/SCHEDULE_Oscar.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="19440" windowHeight="7695"/>
+    <workbookView xWindow="240" yWindow="260" windowWidth="19440" windowHeight="7700"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -126,10 +131,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -138,37 +143,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -177,10 +182,10 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -189,7 +194,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -197,48 +202,48 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -246,23 +251,23 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -719,21 +724,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="0.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="0.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -749,7 +754,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -763,7 +768,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15" thickBot="1">
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
@@ -785,7 +790,7 @@
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
     </row>
-    <row r="4" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -807,7 +812,7 @@
       <c r="K4" s="30"/>
       <c r="L4" s="30"/>
     </row>
-    <row r="5" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="16.5" customHeight="1" thickBot="1">
       <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
@@ -827,7 +832,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="15" thickBot="1">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -841,7 +846,7 @@
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="15" thickBot="1">
       <c r="A7" s="3"/>
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
@@ -864,7 +869,7 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="18" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -901,7 +906,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
     </row>
-    <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="19.5" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="44"/>
       <c r="C9" s="45"/>
@@ -920,7 +925,7 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="16"/>
       <c r="B10" s="44"/>
       <c r="C10" s="45"/>
@@ -939,7 +944,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="16"/>
       <c r="B11" s="44"/>
       <c r="C11" s="45"/>
@@ -958,7 +963,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="16"/>
       <c r="B12" s="44"/>
       <c r="C12" s="45"/>
@@ -977,7 +982,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15" thickBot="1">
       <c r="A13" s="17"/>
       <c r="B13" s="46"/>
       <c r="C13" s="26"/>
@@ -996,7 +1001,7 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -1021,16 +1026,20 @@
       <c r="I14" s="8">
         <v>4</v>
       </c>
-      <c r="J14" s="31"/>
+      <c r="J14" s="31">
+        <v>9</v>
+      </c>
       <c r="K14" s="32"/>
-      <c r="L14" s="10"/>
+      <c r="L14" s="10">
+        <v>9</v>
+      </c>
       <c r="M14" s="12"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="15" thickBot="1">
       <c r="A15" s="5">
         <v>2</v>
       </c>
@@ -1057,16 +1066,21 @@
         <f>G15+I14</f>
         <v>4</v>
       </c>
-      <c r="J15" s="31"/>
+      <c r="J15" s="31">
+        <v>0</v>
+      </c>
       <c r="K15" s="32"/>
-      <c r="L15" s="11"/>
+      <c r="L15" s="11">
+        <f>J15+L14</f>
+        <v>9</v>
+      </c>
       <c r="M15" s="12"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="15" thickBot="1">
       <c r="A16" s="5">
         <v>3</v>
       </c>
@@ -1090,19 +1104,24 @@
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="9">
-        <f t="shared" ref="I16:I20" si="1">G16+I15</f>
+        <f t="shared" ref="I16:I17" si="1">G16+I15</f>
         <v>10.5</v>
       </c>
-      <c r="J16" s="31"/>
+      <c r="J16" s="31">
+        <v>25</v>
+      </c>
       <c r="K16" s="32"/>
-      <c r="L16" s="11"/>
+      <c r="L16" s="11">
+        <f>J16+L15</f>
+        <v>34</v>
+      </c>
       <c r="M16" s="12"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="12"/>
     </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="15" thickBot="1">
       <c r="A17" s="5">
         <v>4</v>
       </c>
@@ -1121,9 +1140,14 @@
         <f>((D17/D20)*100)+F16</f>
         <v>48.387096774193552</v>
       </c>
-      <c r="G17" s="31"/>
+      <c r="G17" s="31">
+        <v>37</v>
+      </c>
       <c r="H17" s="32"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="9">
+        <f t="shared" si="1"/>
+        <v>47.5</v>
+      </c>
       <c r="J17" s="31"/>
       <c r="K17" s="32"/>
       <c r="L17" s="11"/>
@@ -1133,7 +1157,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="15" thickBot="1">
       <c r="A18" s="5">
         <v>5</v>
       </c>
@@ -1164,7 +1188,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15" thickBot="1">
       <c r="A19" s="5">
         <v>6</v>
       </c>
@@ -1195,7 +1219,7 @@
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
     </row>
-    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15" thickBot="1">
       <c r="A20" s="7"/>
       <c r="B20" s="31"/>
       <c r="C20" s="32"/>
@@ -1264,7 +1288,11 @@
     <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1274,9 +1302,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1286,8 +1319,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/NoteBook/task and schedule plans and actual/SCHEDULE_Oscar.xlsx
+++ b/NoteBook/task and schedule plans and actual/SCHEDULE_Oscar.xlsx
@@ -313,16 +313,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -334,6 +379,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -349,9 +412,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -360,66 +420,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,7 +725,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -739,14 +739,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -769,100 +769,100 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="47" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48">
+      <c r="I3" s="17"/>
+      <c r="J3" s="18">
         <v>41719</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="47" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="30" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="47" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="30">
+      <c r="I5" s="17"/>
+      <c r="J5" s="20">
         <v>1</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:17" ht="15" thickBot="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="27" t="s">
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -870,34 +870,34 @@
       <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:17" ht="18" customHeight="1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="18" t="s">
+      <c r="H8" s="24"/>
+      <c r="I8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="36" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M8" s="12"/>
@@ -907,18 +907,18 @@
       <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="38"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="15"/>
       <c r="M9" s="12"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
@@ -926,18 +926,18 @@
       <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="16"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="38"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="15"/>
       <c r="M10" s="12"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -945,18 +945,18 @@
       <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="16"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="38"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="12"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -964,18 +964,18 @@
       <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="16"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="38"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="15"/>
       <c r="M12" s="12"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
@@ -983,18 +983,18 @@
       <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:17" ht="15" thickBot="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="40"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="16"/>
       <c r="M13" s="12"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
@@ -1005,10 +1005,10 @@
       <c r="A14" s="4">
         <v>1</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="8">
         <v>4</v>
       </c>
@@ -1019,17 +1019,17 @@
         <f>(D14/D20)*100</f>
         <v>12.903225806451612</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="23">
         <v>4</v>
       </c>
-      <c r="H14" s="32"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="8">
         <v>4</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="23">
         <v>9</v>
       </c>
-      <c r="K14" s="32"/>
+      <c r="K14" s="22"/>
       <c r="L14" s="10">
         <v>9</v>
       </c>
@@ -1043,10 +1043,10 @@
       <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="21">
         <v>41718</v>
       </c>
-      <c r="C15" s="32"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="9">
         <v>0</v>
       </c>
@@ -1058,18 +1058,18 @@
         <f>((D15/D20)*100)+F14</f>
         <v>12.903225806451612</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="23">
         <v>0</v>
       </c>
-      <c r="H15" s="32"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="9">
         <f>G15+I14</f>
         <v>4</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="23">
         <v>0</v>
       </c>
-      <c r="K15" s="32"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="11">
         <f>J15+L14</f>
         <v>9</v>
@@ -1084,10 +1084,10 @@
       <c r="A16" s="5">
         <v>3</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="21">
         <v>41722</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="9">
         <v>5</v>
       </c>
@@ -1099,20 +1099,20 @@
         <f>((D16/D20)*100)+F15</f>
         <v>29.032258064516128</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="23">
         <v>6.5</v>
       </c>
-      <c r="H16" s="32"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="9">
-        <f t="shared" ref="I16:I17" si="1">G16+I15</f>
+        <f t="shared" ref="I16:I19" si="1">G16+I15</f>
         <v>10.5</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="23">
         <v>25</v>
       </c>
-      <c r="K16" s="32"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="11">
-        <f>J16+L15</f>
+        <f t="shared" ref="L16:L19" si="2">J16+L15</f>
         <v>34</v>
       </c>
       <c r="M16" s="12"/>
@@ -1125,10 +1125,10 @@
       <c r="A17" s="5">
         <v>4</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="21">
         <v>41731</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="9">
         <v>6</v>
       </c>
@@ -1140,17 +1140,22 @@
         <f>((D17/D20)*100)+F16</f>
         <v>48.387096774193552</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="23">
         <v>37</v>
       </c>
-      <c r="H17" s="32"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="9">
         <f t="shared" si="1"/>
         <v>47.5</v>
       </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="11"/>
+      <c r="J17" s="23">
+        <v>37</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="11">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
       <c r="M17" s="12"/>
       <c r="N17" s="13"/>
       <c r="O17" s="12"/>
@@ -1161,10 +1166,10 @@
       <c r="A18" s="5">
         <v>5</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="21">
         <v>41679</v>
       </c>
-      <c r="C18" s="32"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="9">
         <v>10</v>
       </c>
@@ -1176,12 +1181,22 @@
         <f>((D18/D20)*100)+F17</f>
         <v>80.645161290322591</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="11"/>
+      <c r="G18" s="23">
+        <v>6.7</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="9">
+        <f t="shared" si="1"/>
+        <v>54.2</v>
+      </c>
+      <c r="J18" s="23">
+        <v>28.2</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="11">
+        <f t="shared" si="2"/>
+        <v>99.2</v>
+      </c>
       <c r="M18" s="12"/>
       <c r="N18" s="13"/>
       <c r="O18" s="12"/>
@@ -1192,10 +1207,10 @@
       <c r="A19" s="5">
         <v>6</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="21">
         <v>41686</v>
       </c>
-      <c r="C19" s="32"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="9">
         <v>6</v>
       </c>
@@ -1207,12 +1222,22 @@
         <f>((D19/D20)*100)+F18</f>
         <v>100.00000000000001</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="11"/>
+      <c r="G19" s="23">
+        <v>3</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="9">
+        <f t="shared" si="1"/>
+        <v>57.2</v>
+      </c>
+      <c r="J19" s="23">
+        <v>9.6</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="11">
+        <f t="shared" si="2"/>
+        <v>108.8</v>
+      </c>
       <c r="M19" s="12"/>
       <c r="N19" s="13"/>
       <c r="O19" s="12"/>
@@ -1221,55 +1246,24 @@
     </row>
     <row r="20" spans="1:17" ht="15" thickBot="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="6">
         <f>SUM(D14:D19)</f>
         <v>31</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
       <c r="L20" s="6"/>
       <c r="N20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="L8:L13"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J8:K13"/>
-    <mergeCell ref="B8:C13"/>
-    <mergeCell ref="G8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:K19"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="D8:D13"/>
@@ -1286,6 +1280,37 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J8:K13"/>
+    <mergeCell ref="B8:C13"/>
+    <mergeCell ref="G8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
